--- a/Perancangansw/ZAYSHOP/sitemap.xlsx
+++ b/Perancangansw/ZAYSHOP/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\estevan2331009.github.io\Perancangansw\ZAYSHOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884E6F9-918B-4E1C-8EC0-55F10CA607B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3C18F-D133-4F34-BE9F-8958FE51CB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{AD33C88B-E510-0349-AA9E-98843ECCB0AB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Link</t>
   </si>
@@ -194,15 +194,6 @@
   </si>
   <si>
     <t>poster promosi</t>
-  </si>
-  <si>
-    <t>Menampilkan berbagai produk yang best sale serta beberapa banner promosi yang ada di toko</t>
-  </si>
-  <si>
-    <t>Penjelasan mengenai visi misi dari toko</t>
-  </si>
-  <si>
-    <t>page untuk menampilkan beberapa katalog dan button untuk ke online shop</t>
   </si>
 </sst>
 </file>
@@ -409,20 +400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A4D073-7553-294B-AFAB-A23932084245}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,9 +799,7 @@
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="I2" s="13"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -840,7 +823,7 @@
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,7 +847,7 @@
       <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -888,7 +871,7 @@
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,7 +893,7 @@
       <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -986,9 +969,7 @@
       <c r="H10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>55</v>
-      </c>
+      <c r="I10" s="25"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,9 +1093,7 @@
       <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1222,11 +1201,8 @@
       <c r="J20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="J2:J6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
